--- a/EXCEL_OUPUT/20230331 2022 General Purpose Financial Statements signed.xlsx
+++ b/EXCEL_OUPUT/20230331 2022 General Purpose Financial Statements signed.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="710">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="717">
   <si>
     <t>Fixed payments</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Later than 5 years</t>
   </si>
   <si>
-    <t>Leases (as lessee)</t>
-  </si>
-  <si>
     <t>Right-of-use assets</t>
   </si>
   <si>
@@ -228,7 +225,7 @@
     <t>Amounts recognised in profit and loss</t>
   </si>
   <si>
-    <t>Depreciation expense on right- of use assets</t>
+    <t>Depreciation expense on right- of-use assets</t>
   </si>
   <si>
     <t>Interest expense on lease liabilities</t>
@@ -294,7 +291,7 @@
     <t>38371500</t>
   </si>
   <si>
-    <t>Highly Probable Sales designated in cash flow hedge relationship</t>
+    <t>Highly Probable Sales designated in cash flow hedge relationshin</t>
   </si>
   <si>
     <t>0-6 months</t>
@@ -315,7 +312,7 @@
     <t>Total designated forecast transaction exposure (sales)</t>
   </si>
   <si>
-    <t>US$ loan notional designated in cash</t>
+    <t>US$ loan designated in cash</t>
   </si>
   <si>
     <t>flow hedge relationship</t>
@@ -333,13 +330,10 @@
     <t>Ineffective portion of exchange rate</t>
   </si>
   <si>
-    <t>difference recognised in P&amp;L (2)</t>
-  </si>
-  <si>
-    <t>Highly Probable Sales designated in cash flow hedge relationshin</t>
-  </si>
-  <si>
-    <t>&gt;5 years</t>
+    <t>difference recognised in P&amp;L(2)</t>
+  </si>
+  <si>
+    <t>Total designated transaction exposure (sales)</t>
   </si>
   <si>
     <t>USD exposure</t>
@@ -498,6 +492,24 @@
     <t>20268</t>
   </si>
   <si>
+    <t>2506637</t>
+  </si>
+  <si>
+    <t>649702</t>
+  </si>
+  <si>
+    <t>4976574</t>
+  </si>
+  <si>
+    <t>8132913</t>
+  </si>
+  <si>
+    <t>8092154</t>
+  </si>
+  <si>
+    <t>40759</t>
+  </si>
+  <si>
     <t>Financial Instruments</t>
   </si>
   <si>
@@ -540,10 +552,22 @@
     <t>64492096</t>
   </si>
   <si>
+    <t>13983506</t>
+  </si>
+  <si>
+    <t>52355006</t>
+  </si>
+  <si>
+    <t>62609284</t>
+  </si>
+  <si>
+    <t>70742197</t>
+  </si>
+  <si>
     <t>15. Provisions</t>
   </si>
   <si>
-    <t>Secured - at amortised cost</t>
+    <t>Secured at amortised cost</t>
   </si>
   <si>
     <t>Mizuho Bank Term Loan, secured</t>
@@ -552,6 +576,9 @@
     <t>SMBC Term Loan, secured</t>
   </si>
   <si>
+    <t>Non- current</t>
+  </si>
+  <si>
     <t>Employee benefits</t>
   </si>
   <si>
@@ -603,9 +630,6 @@
     <t>20307332</t>
   </si>
   <si>
-    <t>62609284</t>
-  </si>
-  <si>
     <t>14506615</t>
   </si>
   <si>
@@ -675,7 +699,7 @@
     <t>(2,514,105)</t>
   </si>
   <si>
-    <t>(20,284.715)</t>
+    <t>(20,284,715)</t>
   </si>
   <si>
     <t>27483285</t>
@@ -885,10 +909,10 @@
     <t>114010010</t>
   </si>
   <si>
-    <t>1398175</t>
-  </si>
-  <si>
-    <t>(522,844</t>
+    <t>13981754</t>
+  </si>
+  <si>
+    <t>(522,844)</t>
   </si>
   <si>
     <t>127468920</t>
@@ -1005,33 +1029,36 @@
     <t>(824,715)</t>
   </si>
   <si>
+    <t>Recognisedin profit or loss</t>
+  </si>
+  <si>
+    <t>123751</t>
+  </si>
+  <si>
+    <t>(931,372)</t>
+  </si>
+  <si>
+    <t>(228,386)</t>
+  </si>
+  <si>
+    <t>250267</t>
+  </si>
+  <si>
+    <t>196176</t>
+  </si>
+  <si>
+    <t>(421,200)</t>
+  </si>
+  <si>
+    <t>(29,688)</t>
+  </si>
+  <si>
+    <t>(1,040,452)</t>
+  </si>
+  <si>
     <t>Recognised in profit or loss</t>
   </si>
   <si>
-    <t>123751</t>
-  </si>
-  <si>
-    <t>(931,372)</t>
-  </si>
-  <si>
-    <t>(228,386)</t>
-  </si>
-  <si>
-    <t>250267</t>
-  </si>
-  <si>
-    <t>196176</t>
-  </si>
-  <si>
-    <t>(421,200)</t>
-  </si>
-  <si>
-    <t>(29,688)</t>
-  </si>
-  <si>
-    <t>(1,040,452)</t>
-  </si>
-  <si>
     <t>(191,408)</t>
   </si>
   <si>
@@ -1062,18 +1089,24 @@
     <t>(4,330,275)</t>
   </si>
   <si>
-    <t>Recognised in OCI</t>
+    <t>Recognisedin OCI</t>
   </si>
   <si>
     <t>860630</t>
   </si>
   <si>
+    <t>Recognisedi in OCI</t>
+  </si>
+  <si>
     <t>842562</t>
   </si>
   <si>
     <t>Recognised directly in equity</t>
   </si>
   <si>
+    <t>Recognised directlyi in equity</t>
+  </si>
+  <si>
     <t>Closing Balance</t>
   </si>
   <si>
@@ -1116,10 +1149,7 @@
     <t>Income tax (benefit)/expense calculated at 30% (2021: 30%)</t>
   </si>
   <si>
-    <t>Effect of expenses that are not deductible in determining</t>
-  </si>
-  <si>
-    <t>taxable profit</t>
+    <t>Effect of expenses that are not deductible in determining taxable profit</t>
   </si>
   <si>
     <t>Effect of recognition of AASB16</t>
@@ -1131,7 +1161,7 @@
     <t>tax of prior years</t>
   </si>
   <si>
-    <t>or Income tax (benefit)/expense recognised in profit</t>
+    <t>or Income tax (benerit)/expense recognised in profit</t>
   </si>
   <si>
     <t>loss (relating to continuing operations)</t>
@@ -1473,19 +1503,19 @@
     <t>Improvements 0 - 17%</t>
   </si>
   <si>
-    <t>Building &amp; Mine Infrastructure 3 50%</t>
-  </si>
-  <si>
-    <t>Plant &amp; Equipment 3- 50%</t>
+    <t>Building &amp; Mine Infrastructure 3 -5 50%</t>
+  </si>
+  <si>
+    <t>Plant &amp; Equipment 3 5 50%</t>
   </si>
   <si>
     <t>Depreciation rate</t>
   </si>
   <si>
-    <t>0-17%</t>
-  </si>
-  <si>
-    <t>3 -50%</t>
+    <t>0 - 17%</t>
+  </si>
+  <si>
+    <t>3 - 50%</t>
   </si>
   <si>
     <t>50%</t>
@@ -1497,7 +1527,7 @@
     <t>straight line</t>
   </si>
   <si>
-    <t>straight line,</t>
+    <t>straight line, reducing</t>
   </si>
   <si>
     <t>production</t>
@@ -1506,7 +1536,7 @@
     <t>straight line, units of production</t>
   </si>
   <si>
-    <t>units</t>
+    <t>balance, units of</t>
   </si>
   <si>
     <t>Cash flows from operating activities</t>
@@ -1704,7 +1734,7 @@
     <t>528354</t>
   </si>
   <si>
-    <t>Balance at 31 December 2020</t>
+    <t>at 31 December 2020</t>
   </si>
   <si>
     <t>Total comprehensive (loss)/income for the year</t>
@@ -1746,9 +1776,6 @@
     <t>Hedging</t>
   </si>
   <si>
-    <t>Reserve</t>
-  </si>
-  <si>
     <t>3977497</t>
   </si>
   <si>
@@ -1800,6 +1827,9 @@
     <t>NON-CURRENT ASSETS</t>
   </si>
   <si>
+    <t>Right- of-use assets</t>
+  </si>
+  <si>
     <t>Other non-current assets</t>
   </si>
   <si>
@@ -1944,9 +1974,6 @@
     <t>122111851</t>
   </si>
   <si>
-    <t>13983506</t>
-  </si>
-  <si>
     <t>5244865</t>
   </si>
   <si>
@@ -1971,9 +1998,6 @@
     <t>194205260</t>
   </si>
   <si>
-    <t>8092154</t>
-  </si>
-  <si>
     <t>1786202</t>
   </si>
   <si>
@@ -1986,9 +2010,6 @@
     <t>32937351</t>
   </si>
   <si>
-    <t>40759</t>
-  </si>
-  <si>
     <t>241479</t>
   </si>
   <si>
@@ -2070,7 +2091,7 @@
     <t>or Loss</t>
   </si>
   <si>
-    <t>Loss on remeasurement of hedged instrument</t>
+    <t>Loss on of hedged instrument</t>
   </si>
   <si>
     <t>Income tax expense attributable to remeasurement</t>
@@ -2079,7 +2100,7 @@
     <t>Total other comprehensive income</t>
   </si>
   <si>
-    <t>TOTAL COMPREHENSIVE INCOME FOR THE YEAR</t>
+    <t>TOTAL FOR THE YEAR</t>
   </si>
   <si>
     <t>4</t>
@@ -2664,101 +2685,104 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>2021</v>
+      <c r="C2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" t="s">
         <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6">
-        <v>38371500</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8">
-        <v>13983506</v>
+        <v>167</v>
+      </c>
+      <c r="C8" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9">
-        <v>52355006</v>
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11">
-        <v>8132913</v>
+        <v>148</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12">
-        <v>62609284</v>
+        <v>169</v>
+      </c>
+      <c r="C12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13">
-        <v>70742197</v>
+        <v>170</v>
+      </c>
+      <c r="C13" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2790,7 +2814,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -2809,37 +2833,37 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2847,37 +2871,37 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="C10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2886,34 +2910,42 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
     <row r="13" spans="1:4">
       <c r="B13" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="C15" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2921,10 +2953,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="2:4">
@@ -2932,18 +2964,18 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="C18" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="D18" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="2:4">
@@ -2964,35 +2996,35 @@
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C22" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C23" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D23" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3021,10 +3053,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -3032,15 +3064,15 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C4">
         <v>60000000</v>
@@ -3048,7 +3080,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C5">
         <v>60000000</v>
@@ -3086,106 +3118,106 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="E4" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D5" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="E7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3229,231 +3261,231 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="C2" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D2" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F2" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G2" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="H2" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="C3" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="H4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="G5" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="C6" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="H6" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="H7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="G8" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H8" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B9" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="D9" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="G9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="H9" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="D10" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="H10" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B11" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="D11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="H11" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B12" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="E12" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F12" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="G12" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H12" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3493,10 +3525,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="C3">
         <v>20803777</v>
@@ -3507,10 +3539,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C4">
         <v>2461924</v>
@@ -3553,7 +3585,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -3566,7 +3598,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B4">
         <v>3528471</v>
@@ -3577,7 +3609,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B5">
         <v>154991</v>
@@ -3588,7 +3620,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B6">
         <v>1346758</v>
@@ -3599,7 +3631,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B7">
         <v>1198818</v>
@@ -3654,161 +3686,161 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C2" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D2" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="E2" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="F2" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="F4" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C6" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C8" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C9" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="F9" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="C10" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C11" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D11" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="F11" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D13" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="F13" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3816,167 +3848,167 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="D14" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="E14" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="F14" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C16" t="s">
+        <v>340</v>
+      </c>
+      <c r="F16" t="s">
         <v>312</v>
-      </c>
-      <c r="C16" t="s">
-        <v>331</v>
-      </c>
-      <c r="F16" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
+        <v>321</v>
+      </c>
+      <c r="C17" t="s">
+        <v>341</v>
+      </c>
+      <c r="F17" t="s">
         <v>313</v>
-      </c>
-      <c r="C17" t="s">
-        <v>332</v>
-      </c>
-      <c r="F17" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" t="s">
+        <v>342</v>
+      </c>
+      <c r="F18" t="s">
         <v>314</v>
-      </c>
-      <c r="C18" t="s">
-        <v>333</v>
-      </c>
-      <c r="F18" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
+        <v>323</v>
+      </c>
+      <c r="C19" t="s">
+        <v>343</v>
+      </c>
+      <c r="F19" t="s">
         <v>315</v>
-      </c>
-      <c r="C19" t="s">
-        <v>334</v>
-      </c>
-      <c r="F19" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" t="s">
+        <v>344</v>
+      </c>
+      <c r="F20" t="s">
         <v>316</v>
-      </c>
-      <c r="C20" t="s">
-        <v>335</v>
-      </c>
-      <c r="F20" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21" t="s">
+        <v>345</v>
+      </c>
+      <c r="D21" t="s">
+        <v>353</v>
+      </c>
+      <c r="F21" t="s">
         <v>317</v>
-      </c>
-      <c r="C21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D21" t="s">
-        <v>343</v>
-      </c>
-      <c r="F21" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" t="s">
         <v>318</v>
-      </c>
-      <c r="C22" t="s">
-        <v>337</v>
-      </c>
-      <c r="F22" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C23" t="s">
+        <v>347</v>
+      </c>
+      <c r="D23" t="s">
+        <v>353</v>
+      </c>
+      <c r="F23" t="s">
         <v>319</v>
-      </c>
-      <c r="C23" t="s">
-        <v>338</v>
-      </c>
-      <c r="D23" t="s">
-        <v>343</v>
-      </c>
-      <c r="F23" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="C24" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="D25" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F25" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -4008,15 +4040,18 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
-        <v>354</v>
+        <v>365</v>
+      </c>
+      <c r="C2" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4035,161 +4070,149 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B6" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B8" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C8" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D8" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C10" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D12" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>362</v>
-      </c>
-      <c r="B13" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="C14" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D14" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B15" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D16" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C19" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D19" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="C20" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C21" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D21" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C22" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D22" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4218,7 +4241,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -4237,51 +4260,51 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C5" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C6" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -4292,70 +4315,70 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C9" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C10" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C11" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="C12" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C13" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="C14" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -4374,103 +4397,103 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C17" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B18" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C18" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B19" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="C19" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C20" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B21" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="C21" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B22" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C22" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C23" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B24" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C24" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C25" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B26" t="s">
         <v>5</v>
@@ -4489,53 +4512,53 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B29" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="C29" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B31" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C31" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="C32" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B33" t="s">
         <v>5</v>
@@ -4554,95 +4577,95 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B37" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="C37" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B38" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="B39" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="C39" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B41" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="C41" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B43" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C43" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="C44" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B46" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C46" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -4690,10 +4713,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -4701,10 +4724,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4712,10 +4735,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4723,28 +4746,23 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -4763,116 +4781,116 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4910,16 +4928,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="B2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="D2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="E2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4935,64 +4953,64 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C4" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="D4" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="E4" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C5" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="D5" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E5" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="F5" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="E6" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="C7" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="D7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="F7" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -5024,7 +5042,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -5043,255 +5061,255 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C5" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="D5" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="C6" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="D6" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C7" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="D7" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="C8" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="D8" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C9" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="D9" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="C10" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="D10" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C11" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="D11" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="C12" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="D12" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="C14" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="D14" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C15" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="D15" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="C16" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C17" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="C18" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
       <c r="D18" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="C20" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="D20" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="D21" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="C22" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="D22" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C23" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="C24" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="D24" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C25" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="D25" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C27" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="D27" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B29" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
       <c r="C29" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -5326,35 +5344,32 @@
     </row>
     <row r="2" spans="1:5">
       <c r="D2" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="C3" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="D3" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D4" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E4" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5362,7 +5377,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -5373,91 +5388,88 @@
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="D7" t="s">
-        <v>570</v>
+        <v>579</v>
       </c>
       <c r="E7" t="s">
-        <v>576</v>
+        <v>585</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="C8" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="D8" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="E8" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B9" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="D9" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
       <c r="E9" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="D10" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C11" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="E11" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>558</v>
-      </c>
-      <c r="B12" t="s">
-        <v>201</v>
+        <v>568</v>
       </c>
       <c r="C12" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D12" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="E12" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -5489,7 +5501,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -5508,263 +5520,263 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" t="s">
         <v>83</v>
-      </c>
-      <c r="B6" t="s">
-        <v>516</v>
-      </c>
-      <c r="C6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D7" t="s">
-        <v>635</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="B8" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="C8" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="D8" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="B9" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="C10" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="D10" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="B11" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="C11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="C12" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D12" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B14" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="C14" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="D14" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>596</v>
       </c>
       <c r="B15" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="C16" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C17" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="D17" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="C18" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="D18" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C19" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="D19" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="C22" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D22" t="s">
-        <v>644</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="C23" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="D23" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="B24" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="C24" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D24" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B25" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="C25" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="D25" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="C26" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B27" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="C27" t="s">
         <v>10</v>
@@ -5775,93 +5787,93 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="C28" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="D28" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="D29" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B31" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
-        <v>649</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="C32" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D32" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="C33" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="D33" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D34" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B35" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -5872,101 +5884,101 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B36" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="C36" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="D36" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="C37" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="D37" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="C38" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D38" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="C39" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D39" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B41" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="C42" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
       <c r="D42" t="s">
-        <v>572</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="C43" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="D43" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="C44" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D44" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -5998,7 +6010,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -6017,266 +6029,266 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="C6" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="D6" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B8" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C8" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="D8" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>659</v>
+        <v>666</v>
       </c>
       <c r="C9" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="D9" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>660</v>
+        <v>667</v>
       </c>
       <c r="C10" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="D10" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>661</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="C12" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="D12" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B13" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="C13" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="D13" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="C14" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="D14" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="C15" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="D15" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="B16" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="C16" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="D16" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>667</v>
+        <v>674</v>
       </c>
       <c r="C17" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="D17" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>668</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>669</v>
+        <v>676</v>
       </c>
       <c r="C19" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="D19" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="C20" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="D20" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>671</v>
+        <v>678</v>
       </c>
       <c r="C21" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D21" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="B22" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="C22" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="D22" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>673</v>
+        <v>680</v>
       </c>
       <c r="C23" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="D23" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>677</v>
+        <v>684</v>
       </c>
       <c r="B27" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="C27" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>678</v>
+        <v>685</v>
       </c>
       <c r="C28" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="D28" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="C29" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="D29" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="C30" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D30" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -6305,7 +6317,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -6324,42 +6336,42 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -6370,10 +6382,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -6410,7 +6422,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3">
         <v>26351</v>
@@ -6421,7 +6433,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>40683</v>
@@ -6470,13 +6482,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6494,19 +6506,19 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -6516,7 +6528,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6533,28 +6545,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2">
+    <row r="3" spans="1:3">
+      <c r="B3">
         <v>2022</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="C3" t="s">
+    <row r="4" spans="1:3">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5">
+        <v>47888561</v>
+      </c>
+      <c r="C5" t="s">
         <v>83</v>
-      </c>
-      <c r="B4">
-        <v>47888561</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6626,202 +6638,202 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" t="s">
         <v>116</v>
       </c>
-      <c r="D2" t="s">
-        <v>118</v>
-      </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
         <v>117</v>
       </c>
-      <c r="D4" t="s">
-        <v>119</v>
-      </c>
       <c r="E4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6831,213 +6843,213 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
       <c r="C21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" t="s">
         <v>116</v>
       </c>
-      <c r="D21" t="s">
-        <v>118</v>
-      </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
         <v>117</v>
       </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
         <v>117</v>
       </c>
-      <c r="D23" t="s">
-        <v>119</v>
-      </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -7075,62 +7087,65 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
-        <v>2021</v>
+      <c r="E2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="D3" t="s">
         <v>6</v>
       </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4">
-        <v>2506637</v>
+        <v>145</v>
+      </c>
+      <c r="E4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5">
-        <v>649702</v>
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="B6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6">
-        <v>4976574</v>
+        <v>147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="D7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7">
-        <v>8132913</v>
+        <v>148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7138,10 +7153,10 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8">
-        <v>8092154</v>
+        <v>149</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7149,18 +7164,18 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9">
-        <v>40759</v>
+        <v>150</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="D10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10">
-        <v>8132913</v>
+        <v>148</v>
+      </c>
+      <c r="E10" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
